--- a/W2C.xlsx
+++ b/W2C.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -181,10 +181,10 @@
     <x:t>User should be able to view the e-mail to either Approve/Reject the request.</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
+    <x:t>TestScenario_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
     <x:t>Approve/Reject Case</x:t>
@@ -230,39 +230,6 @@
   </x:si>
   <x:si>
     <x:t>User should be able to view the request is either 'Approved' or 'Rejected'.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Approve/Reject through e-mail link Case</x:t>
-  </x:si>
-  <x:si>
-    <x:t>The e-mail should contain a link to Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Validate if the user has received an e-mail notification for Approve/Reject.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should have received an e-mail to Approve/Reject the request.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>To access this page, you have to log in to Salesforce.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the link provided in the e-mail.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Approval Request Page.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Under the 'Approve/Reject Approval Request' section, input comments if necessary.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input the comments.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -346,8 +313,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J27" totalsRowShown="0">
-  <x:autoFilter ref="A1:J27"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J21" totalsRowShown="0">
+  <x:autoFilter ref="A1:J21"/>
   <x:tableColumns count="10">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -652,7 +619,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:J27"/>
+  <x:dimension ref="A1:J21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -660,7 +627,7 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="38.840625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="21.550625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="123.130625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="9.410625" style="0" customWidth="1"/>
@@ -1088,124 +1055,6 @@
       <x:c r="I21" s="0" t="s"/>
       <x:c r="J21" s="0" t="s"/>
     </x:row>
-    <x:row r="22" spans="1:10">
-      <x:c r="A22" s="0" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B22" s="0" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s"/>
-      <x:c r="F22" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G22" s="0" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="H22" s="0" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="I22" s="0" t="s"/>
-      <x:c r="J22" s="0" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:10">
-      <x:c r="A23" s="0" t="s"/>
-      <x:c r="B23" s="0" t="s"/>
-      <x:c r="C23" s="0" t="s"/>
-      <x:c r="D23" s="0" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E23" s="0" t="s"/>
-      <x:c r="F23" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G23" s="0" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="H23" s="0" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="I23" s="0" t="s"/>
-      <x:c r="J23" s="0" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:10">
-      <x:c r="A24" s="0" t="s"/>
-      <x:c r="B24" s="0" t="s"/>
-      <x:c r="C24" s="0" t="s"/>
-      <x:c r="D24" s="0" t="s"/>
-      <x:c r="E24" s="0" t="s"/>
-      <x:c r="F24" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="G24" s="0" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="H24" s="0" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="I24" s="0" t="s"/>
-      <x:c r="J24" s="0" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:10">
-      <x:c r="A25" s="0" t="s"/>
-      <x:c r="B25" s="0" t="s"/>
-      <x:c r="C25" s="0" t="s"/>
-      <x:c r="D25" s="0" t="s"/>
-      <x:c r="E25" s="0" t="s"/>
-      <x:c r="F25" s="0" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="G25" s="0" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="H25" s="0" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="I25" s="0" t="s"/>
-      <x:c r="J25" s="0" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:10">
-      <x:c r="A26" s="0" t="s"/>
-      <x:c r="B26" s="0" t="s"/>
-      <x:c r="C26" s="0" t="s"/>
-      <x:c r="D26" s="0" t="s"/>
-      <x:c r="E26" s="0" t="s"/>
-      <x:c r="F26" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="G26" s="0" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="H26" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="I26" s="0" t="s"/>
-      <x:c r="J26" s="0" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:10">
-      <x:c r="A27" s="0" t="s"/>
-      <x:c r="B27" s="0" t="s"/>
-      <x:c r="C27" s="0" t="s"/>
-      <x:c r="D27" s="0" t="s"/>
-      <x:c r="E27" s="0" t="s"/>
-      <x:c r="F27" s="0" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="G27" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="H27" s="0" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="I27" s="0" t="s"/>
-      <x:c r="J27" s="0" t="s"/>
-    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
